--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_69_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_69_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.0516997278147504, 1.7513247906058464]</t>
+          <t>[1.0430097349943903, 1.7600147834262065]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.732050141673881e-10</v>
+        <v>5.264251257131036e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.732050141673881e-10</v>
+        <v>5.264251257131036e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-2.779947853627004</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1517486653452108, 0.5539830598143475]</t>
+          <t>[0.151622094120065, 0.5541096310394933]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0009607829261875089</v>
+        <v>0.0009671129036867843</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0009607829261875089</v>
+        <v>0.0009671129036867843</v>
       </c>
       <c r="W2" t="n">
         <v>10.1275075075077</v>
